--- a/Deploy/Settings/Budget Simulation - Admin.xlsx
+++ b/Deploy/Settings/Budget Simulation - Admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Budget-Simulation-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Budget-Simulation-Project\Deploy\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7648540-999E-478C-93E0-9AFA86AC64A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD1F24-AB71-4A71-A4B2-3DFFDD07C4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4749EA82-5507-43F6-8DEA-C3E93E89C445}"/>
   </bookViews>
@@ -34,49 +34,12 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Peter</author>
-  </authors>
-  <commentList>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{51ED4AC6-0098-44B8-8661-E5C52B1B7538}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Peter:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The prices are arbitrary and do not reflect accurate pricing</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Deployment #</t>
   </si>
   <si>
-    <t>Highland Price**</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -89,15 +52,9 @@
     <t>(%)</t>
   </si>
   <si>
-    <t>($)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contract Escalator </t>
   </si>
   <si>
-    <t xml:space="preserve">Contract Price Bus/Year </t>
-  </si>
-  <si>
     <t xml:space="preserve">Diesel Price Escalator </t>
   </si>
   <si>
@@ -114,16 +71,35 @@
   </si>
   <si>
     <t>Highland Contract</t>
+  </si>
+  <si>
+    <t>Highland Price $</t>
+  </si>
+  <si>
+    <t>Deployment Year Lower Bound</t>
+  </si>
+  <si>
+    <t>Contract Term Upper Bound</t>
+  </si>
+  <si>
+    <t>(≤)</t>
+  </si>
+  <si>
+    <t>(≥)</t>
+  </si>
+  <si>
+    <t>Contract Term Lower Bound</t>
+  </si>
+  <si>
+    <t>Bounds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -141,19 +117,6 @@
     <font>
       <sz val="11"/>
       <name val="UniversalSans-500"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -194,8 +157,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +189,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -319,12 +306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,20 +319,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -357,23 +329,46 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,180 +679,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F08C9-4AC4-4904-88A7-B04373F8F6D6}">
-  <dimension ref="C3:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F08C9-4AC4-4904-88A7-B04373F8F6D6}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.77734375" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="29"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="25" t="s">
+      <c r="E4" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="H4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>10</v>
+      </c>
+      <c r="J5" s="20">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <f>J5</f>
         <v>30000</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="25" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="29"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="D7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <f>J6</f>
+        <v>30000</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="H8" s="9">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5">
+        <f>J7</f>
+        <v>30000</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10">
-        <v>22000</v>
-      </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>20</v>
-      </c>
-      <c r="J6" s="12">
-        <f>J5</f>
-        <v>22000</v>
-      </c>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="H7" s="19">
-        <v>3</v>
-      </c>
-      <c r="I7" s="11">
-        <v>30</v>
-      </c>
-      <c r="J7" s="12">
-        <f>J6</f>
-        <v>22000</v>
-      </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="13">
-        <v>40</v>
-      </c>
-      <c r="J8" s="14">
-        <f>J7</f>
-        <v>22000</v>
-      </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="E9" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="H9" s="9">
         <v>5</v>
       </c>
       <c r="I9" s="1">
         <v>67</v>
       </c>
       <c r="J9" s="2">
-        <v>27000</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="H10" s="19">
+        <v>25000</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="9">
         <v>6</v>
       </c>
       <c r="I10" s="3">
@@ -866,15 +916,25 @@
       </c>
       <c r="J10" s="2">
         <f>J9</f>
-        <v>27000</v>
-      </c>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="H11" s="19">
+        <v>25000</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2022</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="H11" s="9">
         <v>7</v>
       </c>
       <c r="I11" s="3">
@@ -883,15 +943,25 @@
       </c>
       <c r="J11" s="2">
         <f>J10</f>
-        <v>27000</v>
-      </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="H12" s="19">
+        <v>25000</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="23">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="H12" s="9">
         <v>8</v>
       </c>
       <c r="I12" s="4">
@@ -900,15 +970,25 @@
       </c>
       <c r="J12" s="5">
         <f>J11</f>
-        <v>27000</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="H13" s="19">
+        <v>25000</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="23">
+        <v>20</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="H13" s="9">
         <v>9</v>
       </c>
       <c r="I13" s="3">
@@ -916,15 +996,19 @@
         <v>67</v>
       </c>
       <c r="J13" s="2">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="H14" s="19">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="9">
         <v>10</v>
       </c>
       <c r="I14" s="3">
@@ -933,15 +1017,20 @@
       </c>
       <c r="J14" s="2">
         <f>J13</f>
-        <v>20000</v>
-      </c>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="H15" s="19">
+        <v>22000</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="9">
         <v>11</v>
       </c>
       <c r="I15" s="3">
@@ -950,15 +1039,20 @@
       </c>
       <c r="J15" s="2">
         <f>J14</f>
-        <v>20000</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="H16" s="19">
+        <v>22000</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="9">
         <v>12</v>
       </c>
       <c r="I16" s="4">
@@ -967,15 +1061,20 @@
       </c>
       <c r="J16" s="2">
         <f>J15</f>
-        <v>20000</v>
-      </c>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="H17" s="19">
+        <v>22000</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="9">
         <v>13</v>
       </c>
       <c r="I17" s="3">
@@ -983,15 +1082,20 @@
         <v>67</v>
       </c>
       <c r="J17" s="6">
-        <v>24000</v>
-      </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="H18" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="9">
         <v>14</v>
       </c>
       <c r="I18" s="3">
@@ -1000,15 +1104,20 @@
       </c>
       <c r="J18" s="2">
         <f>J17</f>
-        <v>24000</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="H19" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="9">
         <v>15</v>
       </c>
       <c r="I19" s="3">
@@ -1017,15 +1126,20 @@
       </c>
       <c r="J19" s="2">
         <f>J18</f>
-        <v>24000</v>
-      </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="H20" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="9">
         <v>16</v>
       </c>
       <c r="I20" s="4">
@@ -1034,30 +1148,40 @@
       </c>
       <c r="J20" s="5">
         <f>J19</f>
-        <v>24000</v>
-      </c>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="H21" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="9">
         <v>17</v>
       </c>
       <c r="I21" s="3">
         <v>70</v>
       </c>
       <c r="J21" s="2">
-        <v>22000</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="H22" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="9">
         <v>18</v>
       </c>
       <c r="I22" s="3">
@@ -1065,15 +1189,20 @@
       </c>
       <c r="J22" s="2">
         <f>J21</f>
-        <v>22000</v>
-      </c>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="H23" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="9">
         <v>19</v>
       </c>
       <c r="I23" s="3">
@@ -1081,40 +1210,75 @@
       </c>
       <c r="J23" s="2">
         <f>J22</f>
-        <v>22000</v>
-      </c>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="3:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="9">
         <v>20</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="15">
         <v>70</v>
       </c>
       <c r="J24" s="7">
         <f>J23</f>
-        <v>22000</v>
-      </c>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+        <v>20000</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1C30AF05D05F44290B877FBA47E06D7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c390872fb5ee6617233522a93297a75b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cf34c0ae-c264-4763-a50e-62e14a974a4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7125aa1be032bbebc3f6e2a5c96b98de" ns3:_="">
     <xsd:import namespace="cf34c0ae-c264-4763-a50e-62e14a974a4b"/>
@@ -1246,12 +1410,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1262,6 +1420,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47DD00B-67E0-413D-95D0-0D029AAB1027}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cf34c0ae-c264-4763-a50e-62e14a974a4b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24DADEF-2328-413E-AD3E-4515D429BFEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1279,22 +1453,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47DD00B-67E0-413D-95D0-0D029AAB1027}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cf34c0ae-c264-4763-a50e-62e14a974a4b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{982C5008-F5A2-4ABF-BFBD-A2038E911280}">
   <ds:schemaRefs>

--- a/Deploy/Settings/Budget Simulation - Admin.xlsx
+++ b/Deploy/Settings/Budget Simulation - Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Budget-Simulation-Project\Deploy\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD1F24-AB71-4A71-A4B2-3DFFDD07C4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFBDF0B-4ACC-4515-B02A-3632E32D1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4749EA82-5507-43F6-8DEA-C3E93E89C445}"/>
   </bookViews>
@@ -357,14 +357,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,21 +700,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -724,10 +724,10 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="28"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
         <v>2</v>
@@ -738,15 +738,15 @@
       </c>
       <c r="F3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="28"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="29"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="18"/>
       <c r="C4" s="14" t="s">
         <v>5</v>
@@ -768,10 +768,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="28"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -793,10 +793,10 @@
         <v>30000</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="28"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>8</v>
@@ -819,10 +819,10 @@
         <v>30000</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
@@ -845,10 +845,10 @@
         <v>30000</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
         <v>9</v>
@@ -871,10 +871,10 @@
         <v>30000</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>25000</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="18"/>
       <c r="C10" s="24" t="s">
         <v>18</v>
@@ -919,10 +919,10 @@
         <v>25000</v>
       </c>
       <c r="K10" s="12"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14" t="s">
         <v>13</v>
@@ -946,10 +946,10 @@
         <v>25000</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14" t="s">
         <v>17</v>
@@ -973,10 +973,10 @@
         <v>25000</v>
       </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14" t="s">
         <v>14</v>
@@ -999,10 +999,10 @@
         <v>22000</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1020,16 +1020,16 @@
         <v>22000</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="9">
         <v>11</v>
       </c>
@@ -1042,16 +1042,16 @@
         <v>22000</v>
       </c>
       <c r="K15" s="12"/>
-      <c r="L15" s="28"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="9">
         <v>12</v>
       </c>
@@ -1064,16 +1064,16 @@
         <v>22000</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="28"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="9">
         <v>13</v>
       </c>
@@ -1085,16 +1085,16 @@
         <v>20000</v>
       </c>
       <c r="K17" s="12"/>
-      <c r="L17" s="28"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="9">
         <v>14</v>
       </c>
@@ -1107,16 +1107,16 @@
         <v>20000</v>
       </c>
       <c r="K18" s="12"/>
-      <c r="L18" s="28"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="9">
         <v>15</v>
       </c>
@@ -1129,16 +1129,16 @@
         <v>20000</v>
       </c>
       <c r="K19" s="12"/>
-      <c r="L19" s="28"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="9">
         <v>16</v>
       </c>
@@ -1151,16 +1151,16 @@
         <v>20000</v>
       </c>
       <c r="K20" s="12"/>
-      <c r="L20" s="28"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="9">
         <v>17</v>
       </c>
@@ -1171,16 +1171,16 @@
         <v>20000</v>
       </c>
       <c r="K21" s="12"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="9">
         <v>18</v>
       </c>
@@ -1192,16 +1192,16 @@
         <v>20000</v>
       </c>
       <c r="K22" s="12"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="9">
         <v>19</v>
       </c>
@@ -1213,16 +1213,16 @@
         <v>20000</v>
       </c>
       <c r="K23" s="12"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="9">
         <v>20</v>
       </c>
@@ -1234,34 +1234,34 @@
         <v>20000</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L27" s="28"/>
+      <c r="L27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
